--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1943458.755830572</v>
+        <v>2049185.993828891</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5584514.854430732</v>
+        <v>5894320.469966969</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>101.1844102471628</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>302.8713318308988</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +819,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>117.6362247618615</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>19.00248094963159</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>368.7309496745955</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -953,7 +955,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>354.0814947602175</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.10817387553045</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,13 +1062,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>51.65901304171737</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>170.485059477722</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>303.3863986266246</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.28534392847716</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>111.4283227293936</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>330.4108357941978</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1576,7 +1578,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>178.385924907076</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>219.5141406214751</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>138.9667523008133</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>31.24391673888162</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>43.77283765622059</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1850,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.436997393288</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1898,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2005,10 +2007,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>24.40875262509115</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>82.43648595643971</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>184.7519140116473</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2290,7 +2292,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2299,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>107.3792913045956</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>22.56919457453878</v>
+        <v>20.56754178381327</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>30.11288841831338</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>140.2653052259355</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2851,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2956,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>23.21215624113657</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3010,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>138.0675907704043</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>97.20690742198926</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3196,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>63.51633119327845</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3241,7 +3243,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3509,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3709,10 +3711,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>169.3086501403036</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3740,13 +3742,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>396.977817387557</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3898,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>43.77283765622103</v>
+        <v>105.6319392430787</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3983,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>267.8585336077406</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480023221</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>73.29899740799668</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1353.076515494037</v>
+        <v>545.2299034413993</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>511.1278346652267</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>479.2584538800753</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>449.5241130787745</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>425.6970875283862</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,49 +4333,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>990.8772529665349</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>571.7347895458456</v>
       </c>
       <c r="Y2" t="n">
-        <v>1375.33568193854</v>
+        <v>567.4890698859031</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>480.0602407069692</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>900.1131396518725</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="M3" t="n">
-        <v>1320.166038596776</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>1320.166038596776</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.8677915986111</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="C4" t="n">
-        <v>407.3060800818361</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>241.4280872833587</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4492,13 +4494,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.497835670078</v>
+        <v>1132.258736415702</v>
       </c>
       <c r="X4" t="n">
-        <v>999.1060810034901</v>
+        <v>1132.258736415702</v>
       </c>
       <c r="Y4" t="n">
-        <v>771.6864103175983</v>
+        <v>1132.258736415702</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>954.2291820326056</v>
+        <v>1382.086414623702</v>
       </c>
       <c r="C5" t="n">
-        <v>920.1271132564331</v>
+        <v>943.9439418071256</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>912.0745610219742</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>478.2998161802694</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1733.888642131954</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>2357.989426176734</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>2357.989426176734</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2357.989426176734</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2357.989426176734</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.309253581271</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="V5" t="n">
-        <v>996.6511780658999</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="W5" t="n">
-        <v>995.8361275173372</v>
+        <v>2177.930102426148</v>
       </c>
       <c r="X5" t="n">
-        <v>980.734068137052</v>
+        <v>2162.828043045863</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.4883484771094</v>
+        <v>1754.541919345516</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K6" t="n">
-        <v>778.554892512724</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="L6" t="n">
-        <v>778.554892512724</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="M6" t="n">
-        <v>1198.607791457627</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="N6" t="n">
-        <v>1198.607791457627</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="O6" t="n">
-        <v>1198.607791457627</v>
+        <v>431.6596472970913</v>
       </c>
       <c r="P6" t="n">
-        <v>1198.607791457627</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.0433221421854</v>
+        <v>865.0621401077492</v>
       </c>
       <c r="C7" t="n">
-        <v>288.4816106254103</v>
+        <v>692.5004285909741</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>526.6224357924968</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>356.8644320432341</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>304.6836107889741</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>951.1357312073217</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>951.1357312073217</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="X7" t="n">
-        <v>705.7439765407341</v>
+        <v>1284.300429512628</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.3243058548424</v>
+        <v>1056.880758826736</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>945.0851728516207</v>
+        <v>1153.221971308028</v>
       </c>
       <c r="C8" t="n">
-        <v>516.503498588889</v>
+        <v>1119.119902531855</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>1087.250521746703</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>653.4757769049986</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>225.6083473142064</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1390.732522376756</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>971.590058956067</v>
+        <v>1987.807665493282</v>
       </c>
       <c r="Y8" t="n">
-        <v>967.3443392961244</v>
+        <v>1579.521541792935</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5053801183834</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>75.91166494123175</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1158.090932319419</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>871.1354241898498</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>871.1354241898498</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>625.7436695232623</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3239988373705</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2400.198565378253</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1962.056092561676</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>2287.945556116525</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M11" t="n">
-        <v>2695.523632334179</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>2695.523632334179</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3637.726595827986</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3637.726595827986</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3586.813433454082</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3224.196483387908</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2819.341028798942</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2400.198565378253</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2400.198565378253</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1081.465657964015</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.465657964015</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.465657964015</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.465657964015</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.465657964015</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.293599513877</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>842.7318879971016</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>676.8538951986243</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>507.0958914493616</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>330.3888374111178</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.379401819793</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.499955398248</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.066954651353</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.111446521784</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1679.923643585343</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1434.531888918756</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y13" t="n">
-        <v>1207.112218232864</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1805.422871886987</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1367.28039907041</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1367.28039907041</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>933.5056542287052</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>505.638224637913</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>90.66050204879616</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>925.0107940069742</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>1867.213757500782</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M14" t="n">
-        <v>1867.213757500782</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N14" t="n">
-        <v>1867.213757500782</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O14" t="n">
-        <v>2809.41672099459</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P14" t="n">
-        <v>3637.726595827986</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3464.006484081897</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3059.15102949293</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2640.008566072241</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2231.722442371894</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2012863720785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2012863720785</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2012863720785</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="M15" t="n">
-        <v>680.001633102282</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="N15" t="n">
-        <v>1622.20459659609</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.20459659609</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.6314506292333</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>628.6763311243571</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>451.9692770861134</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>286.378002111941</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>146.4758278023156</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.869740034112</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.4500693482205</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5516,34 +5518,34 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>2009.667423945775</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M17" t="n">
-        <v>2009.667423945775</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5552,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.441008084184</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C19" t="n">
-        <v>842.8792965674086</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E19" t="n">
         <v>673.1212928181459</v>
@@ -5662,7 +5664,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2513.605954495037</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V19" t="n">
-        <v>1952.097456569358</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W19" t="n">
-        <v>1680.07105215565</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X19" t="n">
-        <v>1434.679297489062</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.259626803171</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,22 +5755,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5777,10 +5779,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5938,22 +5940,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.993304878938</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X22" t="n">
-        <v>1481.601550212351</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6066,28 +6068,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957668</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789917</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="26">
@@ -6300,22 +6302,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1039.174348374283</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6412,22 +6414,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y28" t="n">
-        <v>1230.99296709327</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,16 +6466,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>922.9010479080736</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C31" t="n">
-        <v>750.3393363912985</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D31" t="n">
-        <v>584.4613435928212</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.53109197954</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1342.139337312952</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1114.719666627061</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C34" t="n">
-        <v>692.1480610180166</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D34" t="n">
-        <v>526.2700682195393</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E34" t="n">
-        <v>356.5120644702766</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6889,19 +6891,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1134.430677610025</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2291.478512820576</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>287.8657185439749</v>
+        <v>1651.607672489949</v>
       </c>
       <c r="N36" t="n">
-        <v>287.8657185439749</v>
+        <v>1651.607672489949</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1651.607672489949</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1651.607672489949</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1651.607672489949</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7157,43 +7159,43 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N38" t="n">
-        <v>3572.656769371182</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O38" t="n">
-        <v>4552.836435941488</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P38" t="n">
-        <v>4552.836435941488</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7248,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7357,25 +7359,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1283.948061939671</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1306.390568510015</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1306.390568510015</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>905.4028741791492</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>76.13761321162086</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1018.340576705429</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>1018.340576705429</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>1960.543540199237</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2902.746503693045</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2964.974180704925</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2560.118726115958</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2140.976262695269</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1732.690138994923</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.8728193312368</v>
+        <v>949.5782250957709</v>
       </c>
       <c r="C43" t="n">
-        <v>772.3111078144617</v>
+        <v>949.5782250957709</v>
       </c>
       <c r="D43" t="n">
-        <v>728.0961202829253</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>558.3381165336625</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>381.6310624954187</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S43" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.917776692876</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U43" t="n">
-        <v>2168.484775945981</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V43" t="n">
-        <v>1881.529267816412</v>
+        <v>1886.234673580946</v>
       </c>
       <c r="W43" t="n">
-        <v>1609.502863402703</v>
+        <v>1614.208269167237</v>
       </c>
       <c r="X43" t="n">
-        <v>1364.111108736116</v>
+        <v>1368.81651450065</v>
       </c>
       <c r="Y43" t="n">
-        <v>1136.691438050224</v>
+        <v>1141.396843814758</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1649.03826517876</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.895792362183</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>774.9860075366273</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>774.9860075366273</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>347.1185779458351</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>76.13761321162086</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>76.13761321162086</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>378.5120080483794</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.714971542188</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>4148.898600262674</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2136293346052</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6519178178302</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D46" t="n">
-        <v>425.7739250193529</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>256.0159212700901</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>79.30886723184634</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2623.463237557742</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2377.583791136197</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.82558594935</v>
+        <v>2099.150790389303</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.87007781978</v>
+        <v>1812.195282259733</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.843673406072</v>
+        <v>1540.168877846025</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.451918739484</v>
+        <v>1294.777123179437</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0322480535924</v>
+        <v>1067.357452493545</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7997,10 +7999,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>262.4693064538403</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,7 +8142,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8149,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>165.2827306031545</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>385.0780411188022</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="Q6" t="n">
-        <v>385.2554146752025</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8379,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475965</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,16 +8534,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,25 +8613,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>951.720165145261</v>
+        <v>903.3699580700794</v>
       </c>
       <c r="M11" t="n">
-        <v>411.6950264824782</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>379.5169886652535</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>14.66958468401546</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>282.6337518573318</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9003,25 +9005,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>379.5169886652535</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>583.6367138688926</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9164,13 +9166,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>644.2440447110102</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9182,7 +9184,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9401,25 +9403,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>825.7100220597506</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>629.6711904040903</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>199.8177226071389</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>115.0433628885244</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,7 +10831,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>395.0015281256938</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -10905,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>190.3851577538853</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>305.4286816532915</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>251.0005682471274</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>101.1398511831021</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>90.92021546249535</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>5.631333357557651</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>258.4171007621555</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>44.00051207685082</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.0118993322381</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>201.6494670918341</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5.148518520149963</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>141.6500182959537</v>
+        <v>143.6516710866792</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>140.7232059832939</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>140.723205983294</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>131.2385495991671</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>73.62918697961805</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>73.62918697961805</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>34.57286958974288</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>120.4463752142715</v>
+        <v>58.58727362741382</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>129.5253194552281</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>84.34995760698662</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>486385.9548836031</v>
+        <v>496954.5569029992</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>486385.9548836031</v>
+        <v>498857.4569412704</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416416.9769637866</v>
+        <v>515023.3124152998</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416416.9769637866</v>
+        <v>515023.3124152996</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>515023.3124152996</v>
+        <v>515023.3124152998</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416416.9769637866</v>
+        <v>515023.3124152998</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416416.9769637866</v>
+        <v>515023.3124152996</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>482532.5879013677</v>
+      </c>
+      <c r="C2" t="n">
         <v>482532.5879013676</v>
-      </c>
-      <c r="C2" t="n">
-        <v>482532.5879013677</v>
       </c>
       <c r="D2" t="n">
         <v>482532.5879013677</v>
       </c>
       <c r="E2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.825723617</v>
       </c>
       <c r="F2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="G2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="H2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="I2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
+        <v>474171.825723617</v>
+      </c>
+      <c r="K2" t="n">
         <v>474171.8257236171</v>
-      </c>
-      <c r="K2" t="n">
-        <v>474171.825723617</v>
       </c>
       <c r="L2" t="n">
         <v>474171.825723617</v>
@@ -26350,10 +26352,10 @@
         <v>474171.825723617</v>
       </c>
       <c r="O2" t="n">
-        <v>383386.9136976225</v>
+        <v>474171.8257236172</v>
       </c>
       <c r="P2" t="n">
-        <v>383386.9136976224</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662217</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932457</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>54981.28828435788</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
-        <v>54981.2882843579</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="H4" t="n">
+        <v>68000.69828933275</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="L4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="J4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>68000.69828933275</v>
+      </c>
+      <c r="O4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="P4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68000.69828933282</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="O4" t="n">
-        <v>54981.28828435788</v>
-      </c>
-      <c r="P4" t="n">
-        <v>54981.28828435788</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81087.67285791965</v>
+        <v>81087.67285791977</v>
       </c>
       <c r="C6" t="n">
-        <v>223278.9735176297</v>
+        <v>180761.7074051029</v>
       </c>
       <c r="D6" t="n">
-        <v>223278.9735176297</v>
+        <v>240155.8265369536</v>
       </c>
       <c r="E6" t="n">
-        <v>113063.7444503287</v>
+        <v>146097.779607442</v>
       </c>
       <c r="F6" t="n">
-        <v>270541.0393724326</v>
+        <v>328452.8888284918</v>
       </c>
       <c r="G6" t="n">
-        <v>238953.0802221227</v>
+        <v>328452.8888284916</v>
       </c>
       <c r="H6" t="n">
         <v>328452.8888284917</v>
@@ -26543,25 +26545,25 @@
         <v>328452.8888284917</v>
       </c>
       <c r="J6" t="n">
-        <v>217438.4234835016</v>
+        <v>217438.4234835015</v>
       </c>
       <c r="K6" t="n">
-        <v>328452.8888284917</v>
+        <v>275407.0341897191</v>
       </c>
       <c r="L6" t="n">
-        <v>328452.8888284917</v>
+        <v>319060.5871018696</v>
       </c>
       <c r="M6" t="n">
-        <v>197016.6416710723</v>
+        <v>176252.7178905042</v>
       </c>
       <c r="N6" t="n">
         <v>328452.8888284917</v>
       </c>
       <c r="O6" t="n">
-        <v>270541.0393724327</v>
+        <v>328452.8888284918</v>
       </c>
       <c r="P6" t="n">
-        <v>270541.0393724327</v>
+        <v>328452.8888284917</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>296.1994428158059</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>101.3319306324443</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50.42419894990864</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>250.3036594199398</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>53.30562510546315</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>4.909285805294189</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.7922586562668</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>123.280970456144</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>226.8987935852468</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>97.42050141645245</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>65.48800580459425</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>164.2203480100321</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34717,10 +34719,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>262.4693064538403</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,7 +34862,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34869,7 +34871,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>165.2827306031545</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>385.0780411188022</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="Q6" t="n">
-        <v>385.2554146752025</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,22 +35099,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475965</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,16 +35254,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>951.720165145261</v>
+        <v>903.3699580700794</v>
       </c>
       <c r="M11" t="n">
-        <v>411.6950264824782</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>379.5169886652535</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>14.66958468401546</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>282.6337518573318</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>379.5169886652535</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>583.6367138688926</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35886,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>644.2440447110102</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35902,7 +35904,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,25 +36123,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>825.7100220597506</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>629.6711904040903</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>199.8177226071389</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>115.0433628885244</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37558,13 +37560,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>395.0015281256938</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>190.3851577538853</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961005</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>305.4286816532915</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>251.0005682471274</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2049185.993828891</v>
+        <v>2048660.811459859</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916859</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>97.27963914228947</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>101.1844102471628</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>19.00248094963159</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>368.7309496745955</v>
+        <v>409.740169109082</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -964,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>51.65901304171737</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1116,10 +1116,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>226.5760188453018</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1147,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>170.485059477722</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>273.240038951026</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>22.28534392847716</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1539,10 +1539,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481254</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.5141406214751</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>43.77283765622059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>228.207631694666</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.436997393288</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>24.40875262509115</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>184.7519140116473</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>20.56754178381327</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>140.2653052259355</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>23.21215624113657</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>63.51633119327845</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>169.3086501403036</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864829</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3900,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>105.6319392430787</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3957,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.29899740799668</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4197,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>234.1486472602376</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>545.2299034413993</v>
+        <v>1311.887257547977</v>
       </c>
       <c r="C2" t="n">
-        <v>511.1278346652267</v>
+        <v>1277.785188771804</v>
       </c>
       <c r="D2" t="n">
-        <v>479.2584538800753</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="E2" t="n">
-        <v>449.5241130787745</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>425.6970875283862</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4336,19 +4336,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
         <v>1697.183430080417</v>
@@ -4366,16 +4366,16 @@
         <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>991.6923035150976</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>990.8772529665349</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X2" t="n">
-        <v>571.7347895458456</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y2" t="n">
-        <v>567.4890698859031</v>
+        <v>1334.146423992481</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1151.45316161735</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1132.258736415702</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1132.258736415702</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.258736415702</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4549,70 +4549,70 @@
         <v>943.9439418071256</v>
       </c>
       <c r="D5" t="n">
-        <v>912.0745610219742</v>
+        <v>508.0341569815702</v>
       </c>
       <c r="E5" t="n">
-        <v>478.2998161802694</v>
+        <v>74.2594121398653</v>
       </c>
       <c r="F5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087175</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>1733.888642131954</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>2357.989426176734</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>2357.989426176734</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>2357.989426176734</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="P5" t="n">
-        <v>2357.989426176734</v>
+        <v>1975.12054351526</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657693</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657693</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="U5" t="n">
-        <v>2178.74515297471</v>
+        <v>2178.745152974709</v>
       </c>
       <c r="V5" t="n">
-        <v>2178.74515297471</v>
+        <v>1816.128202908535</v>
       </c>
       <c r="W5" t="n">
-        <v>2177.930102426148</v>
+        <v>1815.313152359972</v>
       </c>
       <c r="X5" t="n">
-        <v>2162.828043045863</v>
+        <v>1800.211092979687</v>
       </c>
       <c r="Y5" t="n">
-        <v>1754.541919345516</v>
+        <v>1795.965373319745</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326466</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947713</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947713</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947713</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947713</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947713</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947713</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>50.43238658947713</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970913</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>865.0621401077492</v>
+        <v>1040.830597976034</v>
       </c>
       <c r="C7" t="n">
-        <v>692.5004285909741</v>
+        <v>868.2688864592589</v>
       </c>
       <c r="D7" t="n">
-        <v>526.6224357924968</v>
+        <v>702.3908936607816</v>
       </c>
       <c r="E7" t="n">
-        <v>356.8644320432341</v>
+        <v>532.6328899115188</v>
       </c>
       <c r="F7" t="n">
-        <v>304.6836107889741</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>139.0923358148018</v>
+        <v>190.3345608991026</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
         <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
         <v>1289.464275274177</v>
@@ -4746,31 +4746,31 @@
         <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.08069305568</v>
+        <v>2254.322061757682</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308785</v>
+        <v>1975.889061010787</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179216</v>
+        <v>1688.933552881218</v>
       </c>
       <c r="W7" t="n">
-        <v>1529.692184179216</v>
+        <v>1460.068887380913</v>
       </c>
       <c r="X7" t="n">
-        <v>1284.300429512628</v>
+        <v>1460.068887380913</v>
       </c>
       <c r="Y7" t="n">
-        <v>1056.880758826736</v>
+        <v>1232.649216695021</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1153.221971308028</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>1119.119902531855</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>1087.250521746703</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>653.4757769049986</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>225.6083473142064</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.72477542213</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>2002.909724873567</v>
+        <v>1831.119383460849</v>
       </c>
       <c r="X8" t="n">
-        <v>1987.807665493282</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.521541792935</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4886,7 +4886,7 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>900.7186013536161</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1568898368411</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>562.2788970383638</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>392.520893289101</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F10" t="n">
-        <v>215.8138392508572</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>215.8138392508572</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>75.91166494123175</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1565.348645425083</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1319.956890758495</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1092.537220072603</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5044,10 +5044,10 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
         <v>2588.899621423627</v>
@@ -5080,13 +5080,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1041.416826573035</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>868.8551150562604</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>702.9771222577831</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E13" t="n">
-        <v>533.2191185085204</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F13" t="n">
-        <v>356.5120644702766</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G13" t="n">
         <v>190.9207894961043</v>
@@ -5241,10 +5241,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1454.96690046523</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1233.235445292023</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5278,22 +5278,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
@@ -5317,7 +5317,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
@@ -5360,22 +5360,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>798.4343348736198</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>628.6763311243571</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>451.9692770861134</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>286.378002111941</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>146.4758278023156</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752034</v>
+        <v>2307.748500889406</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005139</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5518,13 +5518,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423627</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1011.560997133398</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>838.9992856166232</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>673.1212928181459</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5703,22 +5703,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2513.605954495037</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2235.172953748142</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1948.217445618573</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1676.191041204865</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1430.799286538277</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.379615852385</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5761,10 +5761,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5779,10 +5779,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1041.416826573035</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>868.8551150562604</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577831</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5940,22 +5940,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.872751300483</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1700.846346886775</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.454592220187</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1228.034921534295</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -6068,28 +6068,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1036.216302815308</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>863.6545912985331</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1228.034921534295</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6305,28 +6305,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.9519976190925</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>743.3902861023174</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>577.5122933038401</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>407.7542895545774</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2417.996954980732</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2139.563954233837</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1852.608446104267</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1580.582041690559</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1335.190287023971</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1107.77061633808</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1039.174348374283</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C31" t="n">
-        <v>866.6126368575082</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D31" t="n">
-        <v>700.7346440590309</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E31" t="n">
-        <v>530.9766403097681</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F31" t="n">
-        <v>354.2695862715243</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6654,19 +6654,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y31" t="n">
-        <v>1230.99296709327</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>896.2081456238831</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>730.3301528254058</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>560.572149076143</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,64 +6925,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1134.430677610025</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2291.478512820576</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1651.607672489949</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1651.607672489949</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1651.607672489949</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1651.607672489949</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1651.607672489949</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7174,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>864.7097725347917</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>692.1480610180166</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>526.2700682195393</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>356.5120644702766</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1283.948061939671</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.528391253779</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7417,10 +7417,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7453,10 +7453,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>949.5782250957709</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>949.5782250957709</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7572,49 +7572,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006609</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.80886177457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.502628878955</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2451.62318245741</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2173.190181710515</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1886.234673580946</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1614.208269167237</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.81651450065</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.396843814758</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004234</v>
@@ -7648,22 +7648,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
@@ -7693,7 +7693,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>875.5388337745582</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>702.9771222577831</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>702.9771222577831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2623.463237557742</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2377.583791136197</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2099.150790389303</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1812.195282259733</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1540.168877846025</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X46" t="n">
-        <v>1294.777123179437</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1067.357452493545</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>407.152590549595</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>243.668587255866</v>
       </c>
       <c r="Q5" t="n">
-        <v>165.2827306031545</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.0780411188022</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.94960388475965</v>
+        <v>22.94960388475829</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8692,13 +8692,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>903.3699580700794</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8935,16 +8935,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>282.6337518573318</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9166,16 +9166,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802852</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,13 +9409,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>629.6711904040903</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>199.8177226071389</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10667,13 +10667,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>115.0433628885244</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10843,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,7 +11305,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>251.0005682471274</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.6338082530488</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.631333357557651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.00051207685082</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>15.21302026266324</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.0118993322381</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.148518520149963</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>103.1553467313937</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>140.723205983294</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>111.4236523045829</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>73.62918697961805</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>58.58727362741382</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>84.34995760698662</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>8.789189859684058</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>515023.3124152998</v>
+        <v>515023.3124152996</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>515023.3124152998</v>
+        <v>515023.3124152996</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>515023.3124152998</v>
+        <v>515023.3124152996</v>
       </c>
     </row>
     <row r="16">
@@ -26319,19 +26319,19 @@
         <v>482532.5879013676</v>
       </c>
       <c r="D2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
+        <v>474171.8257236169</v>
+      </c>
+      <c r="F2" t="n">
         <v>474171.825723617</v>
-      </c>
-      <c r="F2" t="n">
-        <v>474171.8257236171</v>
       </c>
       <c r="G2" t="n">
         <v>474171.8257236169</v>
       </c>
       <c r="H2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="I2" t="n">
         <v>474171.825723617</v>
@@ -26340,22 +26340,22 @@
         <v>474171.825723617</v>
       </c>
       <c r="K2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="L2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="O2" t="n">
-        <v>474171.8257236172</v>
+        <v>474171.825723617</v>
       </c>
       <c r="P2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501635</v>
+        <v>66587.76789501625</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998259</v>
+        <v>11527.59554998269</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877266</v>
+        <v>53045.85463877258</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.30172662217</v>
+        <v>9392.301726622249</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,7 +26420,7 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>163226.8987932457</v>
+        <v>163226.8987932458</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
@@ -26432,34 +26432,34 @@
         <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933275</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933275</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933277</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26524,46 +26524,46 @@
         <v>81087.67285791977</v>
       </c>
       <c r="C6" t="n">
-        <v>180761.7074051029</v>
+        <v>180761.707405103</v>
       </c>
       <c r="D6" t="n">
-        <v>240155.8265369536</v>
+        <v>240155.8265369534</v>
       </c>
       <c r="E6" t="n">
-        <v>146097.779607442</v>
+        <v>146074.5552680592</v>
       </c>
       <c r="F6" t="n">
-        <v>328452.8888284918</v>
+        <v>328429.6644891091</v>
       </c>
       <c r="G6" t="n">
-        <v>328452.8888284916</v>
+        <v>328429.664489109</v>
       </c>
       <c r="H6" t="n">
-        <v>328452.8888284917</v>
+        <v>328429.664489109</v>
       </c>
       <c r="I6" t="n">
-        <v>328452.8888284917</v>
+        <v>328429.6644891091</v>
       </c>
       <c r="J6" t="n">
-        <v>217438.4234835015</v>
+        <v>217415.1991441189</v>
       </c>
       <c r="K6" t="n">
-        <v>275407.0341897191</v>
+        <v>275383.8098503365</v>
       </c>
       <c r="L6" t="n">
-        <v>319060.5871018696</v>
+        <v>319037.3627624868</v>
       </c>
       <c r="M6" t="n">
-        <v>176252.7178905042</v>
+        <v>176229.4935511214</v>
       </c>
       <c r="N6" t="n">
-        <v>328452.8888284917</v>
+        <v>328429.664489109</v>
       </c>
       <c r="O6" t="n">
-        <v>328452.8888284918</v>
+        <v>328429.664489109</v>
       </c>
       <c r="P6" t="n">
-        <v>328452.8888284917</v>
+        <v>328429.664489109</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768882</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>334.2710478350104</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>296.1994428158059</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>250.3036594199398</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.30562510546315</v>
+        <v>12.2964056709767</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>123.280970456144</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>42.73012152426955</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>226.8987935852468</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>127.5668610920511</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>65.48800580459425</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>407.152590549595</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>243.668587255866</v>
       </c>
       <c r="Q5" t="n">
-        <v>165.2827306031545</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.0780411188022</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35114,7 +35114,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.94960388475965</v>
+        <v>22.94960388475829</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>903.3699580700794</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>282.6337518573318</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35886,16 +35886,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802852</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36129,13 +36129,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>825.7100220597506</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>629.6711904040903</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>199.8177226071389</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37387,13 +37387,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>115.0433628885244</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37563,10 +37563,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37940,13 +37940,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924961005</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>251.0005682471274</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
